--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ravichandran Ashwin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>20/10/2010</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/12/2010</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>04/12/2010</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>07/12/2010</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>10/12/2010</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>24/03/2011</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3278</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>11/09/2011</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>17/10/2011</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>23/10/2011</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1651,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>02/12/2011</t>
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1710,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1750,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>08/12/2011</t>
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1756,7 +1809,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1808,7 +1861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,7 +1913,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2069,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2056,7 +2109,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>28/02/2012</t>
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2104,7 +2156,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>13/03/2012</t>
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2203,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>16/03/2012</t>
@@ -2160,7 +2210,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2250,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -2208,7 +2257,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2260,7 +2309,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2312,7 +2361,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2352,7 +2401,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>28/07/2012</t>
@@ -2360,7 +2408,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2400,7 +2448,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>31/07/2012</t>
@@ -2408,7 +2455,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2460,7 +2507,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2512,7 +2559,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2564,7 +2611,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2616,7 +2663,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2668,7 +2715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2720,7 +2767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2760,7 +2807,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>19/01/2013</t>
@@ -2768,7 +2814,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2808,7 +2854,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -2816,7 +2861,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2913,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2920,7 +2965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2960,7 +3005,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>11/06/2013</t>
@@ -2968,7 +3012,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3008,7 +3052,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>15/06/2013</t>
@@ -3016,7 +3059,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3056,7 +3099,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -3064,7 +3106,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3116,7 +3158,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3168,7 +3210,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3220,7 +3262,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3272,7 +3314,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3312,7 +3354,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -3320,7 +3361,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3372,7 +3413,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3424,7 +3465,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3464,7 +3505,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>16/10/2013</t>
@@ -3472,7 +3512,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3524,7 +3564,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3564,7 +3604,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>23/10/2013</t>
@@ -3572,7 +3611,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3612,7 +3651,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>30/10/2013</t>
@@ -3620,7 +3658,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3660,7 +3698,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>02/11/2013</t>
@@ -3668,7 +3705,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3708,7 +3745,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>21/11/2013</t>
@@ -3716,7 +3752,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3768,7 +3804,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3808,7 +3844,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -3816,7 +3851,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3868,7 +3903,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3920,7 +3955,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3960,7 +3995,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -3968,7 +4002,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4020,7 +4054,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4072,7 +4106,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4124,7 +4158,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4176,7 +4210,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4228,7 +4262,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4268,7 +4302,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -4276,7 +4309,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4328,7 +4361,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4380,7 +4413,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4420,7 +4453,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -4428,7 +4460,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4480,7 +4512,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4520,7 +4552,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>30/08/2014</t>
@@ -4528,7 +4559,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4568,7 +4599,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -4576,7 +4606,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4628,7 +4658,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4668,7 +4698,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>02/11/2014</t>
@@ -4676,7 +4705,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4716,7 +4745,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>06/11/2014</t>
@@ -4724,7 +4752,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4764,7 +4792,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>09/11/2014</t>
@@ -4772,7 +4799,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4824,7 +4851,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4876,7 +4903,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4928,7 +4955,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4980,7 +5007,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5020,7 +5047,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>28/02/2015</t>
@@ -5028,7 +5054,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5080,7 +5106,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5120,7 +5146,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>10/03/2015</t>
@@ -5128,7 +5153,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5168,7 +5193,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -5176,7 +5200,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5228,7 +5252,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5280,7 +5304,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5332,7 +5356,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5384,7 +5408,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5424,7 +5448,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>24/06/2015</t>
@@ -5432,7 +5455,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5472,7 +5495,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>11/10/2015</t>
@@ -5480,7 +5502,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5520,7 +5542,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -5528,7 +5549,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5580,7 +5601,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5632,7 +5653,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5672,7 +5693,6 @@
           <t>104</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -5680,7 +5700,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5732,7 +5752,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5772,7 +5792,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -5780,7 +5799,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5820,7 +5839,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -5828,7 +5846,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5880,7 +5898,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5920,7 +5938,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -5928,7 +5945,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5968,7 +5985,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -5976,7 +5992,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6016,7 +6032,6 @@
           <t>111</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -6024,7 +6039,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6076,7 +6091,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6128,7 +6143,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6167,7 +6182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6189,7 +6204,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6226,7 +6241,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6263,7 +6278,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6300,7 +6315,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3204</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6337,7 +6352,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6374,7 +6389,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6411,7 +6426,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6448,7 +6463,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6485,7 +6500,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6522,7 +6537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3278</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6559,7 +6574,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6596,7 +6611,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6633,7 +6648,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6670,7 +6685,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6707,7 +6722,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6744,7 +6759,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6781,7 +6796,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6818,7 +6833,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6855,7 +6870,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6892,7 +6907,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6929,7 +6944,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6966,7 +6981,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7003,7 +7018,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7040,7 +7055,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7077,7 +7092,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7114,7 +7129,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7151,7 +7166,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7188,7 +7203,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7225,7 +7240,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7262,7 +7277,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7299,7 +7314,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7336,7 +7351,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7373,7 +7388,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7410,7 +7425,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7447,7 +7462,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7484,7 +7499,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7521,7 +7536,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7558,7 +7573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7595,7 +7610,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7632,7 +7647,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7669,7 +7684,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7706,7 +7721,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7743,7 +7758,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7780,7 +7795,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7817,7 +7832,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7854,7 +7869,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7891,7 +7906,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7928,7 +7943,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7965,7 +7980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8002,7 +8017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8039,7 +8054,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8076,7 +8091,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8113,7 +8128,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8150,7 +8165,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8187,7 +8202,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8224,7 +8239,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8261,7 +8276,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8298,7 +8313,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8335,7 +8350,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8372,7 +8387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8409,7 +8424,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8446,7 +8461,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8483,7 +8498,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8520,7 +8535,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8557,7 +8572,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8594,7 +8609,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8631,7 +8646,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8668,7 +8683,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8705,7 +8720,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8742,7 +8757,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8779,7 +8794,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8816,7 +8831,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8853,7 +8868,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8890,7 +8905,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8927,7 +8942,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8964,7 +8979,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9001,7 +9016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9038,7 +9053,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9075,7 +9090,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9112,7 +9127,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9149,7 +9164,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9186,7 +9201,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9223,7 +9238,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9260,7 +9275,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9297,7 +9312,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9334,7 +9349,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9371,7 +9386,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9408,7 +9423,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9445,7 +9460,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9482,7 +9497,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9519,7 +9534,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9556,7 +9571,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9593,7 +9608,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9630,7 +9645,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9667,7 +9682,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9704,7 +9719,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9741,7 +9756,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9778,7 +9793,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9815,7 +9830,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9852,7 +9867,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9889,7 +9904,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -9926,7 +9941,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9963,7 +9978,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10000,7 +10015,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10037,7 +10052,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10074,7 +10089,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10111,7 +10126,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10148,7 +10163,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10185,7 +10200,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10222,7 +10237,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10259,7 +10274,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10296,7 +10311,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10322,6 +10337,455 @@
       <c r="G112" t="inlineStr">
         <is>
           <t>0/68</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.71%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10397,10 +10398,6 @@
           <t>3786</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10486,7 +10483,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10499,10 +10495,6 @@
           <t>3810</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10518,9 +10510,6 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10536,9 +10525,6 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10554,9 +10540,6 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10569,10 +10552,6 @@
           <t>3875</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10615,10 +10594,6 @@
           <t>3976</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10631,83 +10606,382 @@
           <t>3978</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.71%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4042</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4047</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4050</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10715,15 +10989,14 @@
           <t>4052</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10735,13 +11008,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10751,13 +11017,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10765,29 +11024,12 @@
           <t>4526</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.71%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4008,7 +4007,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -10398,6 +10397,10 @@
           <t>3786</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10483,6 +10486,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10495,6 +10499,10 @@
           <t>3810</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10510,6 +10518,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10525,6 +10536,9 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10540,6 +10554,9 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10552,6 +10569,10 @@
           <t>3875</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10594,6 +10615,10 @@
           <t>3976</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10606,6 +10631,10 @@
           <t>3978</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10621,6 +10650,9 @@
       <c r="B14" t="n">
         <v>10</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10636,6 +10668,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10648,6 +10683,10 @@
           <t>4050</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10660,6 +10699,10 @@
           <t>4051</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10675,6 +10718,9 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10687,6 +10733,10 @@
           <t>4053</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10699,6 +10749,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10734,302 +10788,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3781</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3786</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3791</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3795</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3808</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3810</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3811</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3841</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3874</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3974</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3976</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3978</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4042</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4047</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4050</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4052</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4053</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3788.xlsx
@@ -10351,7 +10351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10394,7 +10394,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -10410,27 +10410,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3791</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.99%</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10440,7 +10428,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3795</t>
+          <t>3204</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10456,11 +10444,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.15%</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10470,22 +10454,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3808</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3206</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
@@ -10496,10 +10470,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3810</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -10512,11 +10488,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -10530,11 +10506,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -10548,15 +10524,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.73%</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10566,10 +10554,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -10582,27 +10572,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3974</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10612,13 +10588,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3976</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10628,12 +10618,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3978</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
@@ -10644,12 +10644,10 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4042</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -10662,15 +10660,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10680,7 +10690,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -10696,7 +10706,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -10712,15 +10722,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10730,10 +10752,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4053</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -10746,7 +10770,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -10762,28 +10786,2024 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12.70%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5.93%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15.76%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3387</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15.22%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3435</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.41%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8.04%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>9.24%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10.27%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.70%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3.29%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>8.65%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>10</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>9</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B114" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
